--- a/Assets/VoiceType_5.xlsx
+++ b/Assets/VoiceType_5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E7411B8-2BEC-414B-BEB0-E6F3F585B5AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB5FF0-87C3-4CBF-82C0-EFC1C1DA645C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,14 @@
   </si>
   <si>
     <t>ShootDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEnd_NoGift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没选自动送礼品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,13 +649,13 @@
   <dimension ref="A1:BG301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="B60" sqref="B60:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.75" customWidth="1"/>
     <col min="9" max="10" width="25" customWidth="1"/>
     <col min="11" max="12" width="23.25" customWidth="1"/>
@@ -4857,17 +4865,30 @@
       <c r="BG57" s="1"/>
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="L58" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
